--- a/ig/sd-page-title-type-link-ko/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-page-title-type-link-ko/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T13:46:33+00:00</t>
+    <t>2023-08-23T14:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-page-title-type-link-ko/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-page-title-type-link-ko/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T14:14:43+00:00</t>
+    <t>2023-08-23T16:24:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-page-title-type-link-ko/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-page-title-type-link-ko/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T16:24:38+00:00</t>
+    <t>2023-08-24T10:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-page-title-type-link-ko/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-page-title-type-link-ko/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T10:02:50+00:00</t>
+    <t>2023-08-24T12:20:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
